--- a/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>24,98; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>17,66; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>89,62; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,16</t>
+          <t>94,84; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>90,52; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>96,58; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,61%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,06%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>82,63; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>85,1; 98,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,55</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>93,04; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>90,6; 98,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>94,64; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,06</t>
+          <t>93,37; 100,0</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>63,54; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>82,38; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>88,47; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>88,32; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>87,43; 98,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>89,7; 98,87</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>62,54; 96,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>75,35; 97,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>81,94; 98,29</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>93,35; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>92,21; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,31</t>
+          <t>82,17; 96,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>95,46; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>90,16; 98,19</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>85,68; 97,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>89,51; 98,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>90,59; 97,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>97,34; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>95,78; 99,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>90,69; 96,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>97,84; 99,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>95,26; 98,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,27 +647,27 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>75,89%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>98,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>58,69%</t>
+          <t>95,17%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>72,87; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,75; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,59; 100</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,98; 100,0</t>
+          <t>80,36; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,26; 100</t>
+          <t>90,09; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 100</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,66; 100,0</t>
+          <t>83,08; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,51; 100</t>
+          <t>93,49; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,31; 100</t>
+          <t>97,14; 100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -747,42 +747,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>96,61%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>97,59%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,06%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,01; 100</t>
+          <t>82,63; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 100</t>
+          <t>93,85; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>90,51; 100</t>
+          <t>85,1; 98,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,62; 100,0</t>
+          <t>97,45; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,66; 100</t>
+          <t>93,04; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>94,84; 100</t>
+          <t>90,6; 98,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,52; 100,0</t>
+          <t>94,64; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>96,58; 100</t>
+          <t>93,37; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>92,53%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>96,61%</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>96,49%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>94,5%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,31%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>95,3%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>98,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>96,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>99,09%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,73; 100</t>
+          <t>63,54; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>82,63; 100,0</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,85; 100</t>
+          <t>82,38; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>85,1; 98,27</t>
+          <t>88,47; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>97,45; 100</t>
+          <t>95,45; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>93,04; 100,0</t>
+          <t>88,32; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,6; 98,8</t>
+          <t>87,43; 98,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>94,64; 100,0</t>
+          <t>96,76; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,37; 100,0</t>
+          <t>89,7; 98,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -972,37 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>96,49%</t>
+          <t>89,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>97,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>91,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>95,15%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,54; 100,0</t>
+          <t>62,54; 96,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,47; 100</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,38; 100,0</t>
+          <t>75,35; 97,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,47; 100,0</t>
+          <t>81,94; 98,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,45; 100</t>
+          <t>93,35; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,32; 100,0</t>
+          <t>92,21; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,43; 98,55</t>
+          <t>82,17; 96,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,76; 100</t>
+          <t>95,46; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>89,7; 98,87</t>
+          <t>90,16; 98,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>93,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,09%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>89,69%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>97,58%</t>
+          <t>98,04%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>94,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>97,28%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>62,54; 96,89</t>
+          <t>85,68; 97,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,64; 100</t>
+          <t>95,52; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,35; 97,33</t>
+          <t>89,51; 98,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,94; 98,29</t>
+          <t>90,59; 97,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>93,35; 100,0</t>
+          <t>97,34; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>92,21; 100,0</t>
+          <t>95,78; 99,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,17; 96,79</t>
+          <t>90,69; 96,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,46; 100,0</t>
+          <t>97,84; 99,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,19</t>
+          <t>95,26; 98,66</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>93,32%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>99,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>95,54%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>94,78%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>99,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>98,04%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>94,33%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99,19%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>97,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>85,68; 97,76</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>95,52; 100,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>89,51; 98,21</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>90,59; 97,75</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>97,34; 100,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>95,78; 99,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>90,69; 96,76</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>97,84; 99,75</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>95,26; 98,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B05-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>72,87; 100,0</t>
+          <t>69,93; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -700,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80,36; 100,0</t>
+          <t>80,69; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,09; 100,0</t>
+          <t>90,21; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>83,08; 100,0</t>
+          <t>84,5; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>93,49; 100,0</t>
+          <t>93,38; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -800,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82,63; 100,0</t>
+          <t>82,3; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85,1; 98,27</t>
+          <t>84,52; 98,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,22 +821,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,04; 100,0</t>
+          <t>92,54; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,6; 98,8</t>
+          <t>90,49; 98,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,64; 100,0</t>
+          <t>95,5; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,37; 100,0</t>
+          <t>95,58; 100,0</t>
         </is>
       </c>
     </row>
@@ -905,7 +906,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,54; 100,0</t>
+          <t>60,9; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +916,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>82,38; 100,0</t>
+          <t>84,46; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,47; 100,0</t>
+          <t>87,78; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +931,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,32; 100,0</t>
+          <t>87,44; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,43; 98,55</t>
+          <t>87,28; 98,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>89,7; 98,87</t>
+          <t>90,74; 98,88</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,54; 96,89</t>
+          <t>66,29; 96,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,37 +1026,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,35; 97,33</t>
+          <t>76,02; 97,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,94; 98,29</t>
+          <t>82,02; 98,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,35; 100,0</t>
+          <t>92,61; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,21; 100,0</t>
+          <t>91,31; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,17; 96,79</t>
+          <t>82,84; 96,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,46; 100,0</t>
+          <t>93,76; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,19</t>
+          <t>90,31; 98,27</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>85,68; 97,76</t>
+          <t>84,04; 97,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,52; 100,0</t>
+          <t>93,79; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,51; 98,21</t>
+          <t>90,04; 98,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>90,59; 97,75</t>
+          <t>90,48; 97,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,34; 100,0</t>
+          <t>97,35; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>95,78; 99,28</t>
+          <t>95,7; 99,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>90,69; 96,76</t>
+          <t>90,9; 96,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,75</t>
+          <t>97,71; 99,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>95,26; 98,66</t>
+          <t>95,12; 98,65</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos tranquilizantes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>16046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24529</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>15290</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21796</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>47363</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>51208</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>37842</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>71891</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66499</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11959; 17100</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22501; 24529</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>13481; 15290</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>18287; 22663</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43569; 48298</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49324; 51208</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>33601; 39763</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>68006; 72826</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>64599; 66499</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23344</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29203</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>31438</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52095</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>81863</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68603</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>75440</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>111067</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>100041</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21414; 23344</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24876; 30227</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29504; 31438</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46590; 54193</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79773; 81863</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>64369; 69557</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>71004; 77550</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>107051; 112091</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>96529; 100995</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12218</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>24781</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28759</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43987</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46131</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>54742</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56205</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>70912</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83502</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8042; 13204</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22170; 24781</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25173; 29806</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>40177; 45770</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44032; 46131</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49700; 56837</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>51474; 58102</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>68612; 70912</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>78621; 85675</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23581</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>33382</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36292</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51974</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>73371</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>88918</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>75555</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>106753</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>125210</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17847; 26075</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>31261; 33382</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30761; 39372</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45640; 54702</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68845; 74340</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>83204; 91125</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68400; 79886</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100998; 107722</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>118831; 129313</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>75190</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>111894</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>111780</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>169851</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>248728</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>263471</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>245042</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>360623</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>375251</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67712; 78646</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>105908; 112918</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>105338; 114931</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>162135; 174510</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>243981; 250632</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>257165; 266742</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>236145; 251452</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>355239; 362610</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>366902; 380503</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>